--- a/biology/Histoire de la zoologie et de la botanique/Bernhard_Grzimek/Bernhard_Grzimek.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Bernhard_Grzimek/Bernhard_Grzimek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard Grzimek (/ˈgʒɪ.mɛk/), né le 24 avril 1909 à Neisse (aujourd'hui Nysa), en Haute-Silésie, et mort le 13 mars 1987 à Francfort-sur-le-Main, est un zoologiste allemand. Vétérinaire de formation, il fut directeur du Zoo de Francfort-sur-le-Main (1945-1974). Il fut un protecteur actif de la nature, notamment du parc national du Serengeti, en Tanzanie.
 Il est le père de Michael Grzimek (de) (1934-1959),  qui est décédé dans un accident d'avion qu'il pilotait juste après la réalisation de leur film (Le Serengeti ne doit pas mourir).
@@ -512,7 +524,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Serengeti ne doit pas mourir (en allemand : Serengeti darf nicht sterben, 1959) de Bernhard et Michael Grzimek a obtenu l’Oscar du meilleur film documentaire lors de la 32e cérémonie des Oscars à Hollywood en 1960.
 </t>
